--- a/Wykres Gantta.xlsx
+++ b/Wykres Gantta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wisniowaty\Documents\io_praca_zaliczeniowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6CD355-4070-4EE6-806E-0FC9F0DC791C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F044D8-4B22-46A9-9810-035DC8951D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{768FD7EE-D8FC-43DD-A055-21B26193AEB3}"/>
   </bookViews>
@@ -75,23 +75,6 @@
   </si>
   <si>
     <t>Implementacja funkcji wspólnej analizy partii</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Projekt w fazie </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -150,6 +133,34 @@
   <si>
     <t>Serwisowanie platformy</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Projekt w fazie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - pierwsza wersja testowalna</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -254,20 +265,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -584,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D82CB77-22E1-4198-A3A7-5057F6C3234F}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,16 +638,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1">
@@ -682,564 +724,565 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>44326</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>44333</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>44333</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>44340</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>44340</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>44347</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>44340</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>44354</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>44354</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>44361</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>44361</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>44382</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>44382</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="9">
         <v>44396</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="11">
         <v>44396</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>44410</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13">
+        <v>44410</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>44424</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44424</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>44445</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44445</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>44459</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44410</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44424</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44424</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44445</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44445</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13">
         <v>44459</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>44466</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
-        <v>44459</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B16" s="9">
         <v>44466</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44466</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>44494</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>